--- a/Examples/BorrowingConstraint/Results.xlsx
+++ b/Examples/BorrowingConstraint/Results.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dynare\dynareOBC\Examples\CapitalConstraints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dynare\dynareOBC\Examples\BorrowingConstraint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6825" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Source Data" sheetId="3" r:id="rId1"/>
+    <sheet name="Data for 1 Norm Plot" sheetId="1" r:id="rId2"/>
+    <sheet name="1 Norm Plot" sheetId="2" r:id="rId3"/>
+    <sheet name="Data for Inf Norm Plot" sheetId="4" r:id="rId4"/>
+    <sheet name="Inf Norm Plot" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>1023 point QMC</t>
   </si>
@@ -34,6 +37,18 @@
   </si>
   <si>
     <t>Periods of uncertainty</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>QMC 9</t>
+  </si>
+  <si>
+    <t>Horizon</t>
+  </si>
+  <si>
+    <t>Infinity</t>
   </si>
 </sst>
 </file>
@@ -80,9 +95,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,7 +144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>'Data for 1 Norm Plot'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -161,7 +179,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -227,78 +245,150 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>5.6904418568273502E-4</c:v>
+                  <c:v>3.7400816402754201E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2944255760436197E-4</c:v>
+                  <c:v>3.3101219461231898E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1578700705044798E-4</c:v>
+                  <c:v>3.17357351106775E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9477195682145103E-4</c:v>
+                  <c:v>3.0520631703134398E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.75342296195695E-4</c:v>
+                  <c:v>2.9526597785378499E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6195835580417301E-4</c:v>
+                  <c:v>2.7276737473014099E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.53484151319983E-4</c:v>
+                  <c:v>2.6248750420700198E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4826916223397999E-4</c:v>
+                  <c:v>2.53493561805801E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4833848388715398E-4</c:v>
+                  <c:v>2.4572763717441801E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4978592856210299E-4</c:v>
+                  <c:v>2.3912575844339101E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.48147731166954E-4</c:v>
+                  <c:v>2.33478952330172E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4823610235986301E-4</c:v>
+                  <c:v>2.2873168637966498E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4977107010801403E-4</c:v>
+                  <c:v>2.2476006556273798E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4717588217279398E-4</c:v>
+                  <c:v>2.2147437892379002E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4810924483685801E-4</c:v>
+                  <c:v>2.18761406320034E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.49908097391499E-4</c:v>
+                  <c:v>2.1649856337734698E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5238188822885903E-4</c:v>
+                  <c:v>2.1473849503767699E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5354170216847502E-4</c:v>
+                  <c:v>2.1345084948281002E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5297381082394099E-4</c:v>
+                  <c:v>1.81339003812334E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5282695583581802E-4</c:v>
+                  <c:v>1.7924257212901199E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5427588803260402E-4</c:v>
+                  <c:v>1.77537107833506E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.76211607944527E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7521251302226001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7449411465290999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7399484028263301E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7377591829206901E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.73764346141537E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7393559662726701E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.74262559523878E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.74708544199504E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7530586585770801E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.75996581163959E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.76805888780284E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -315,7 +405,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'Data for 1 Norm Plot'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -351,7 +441,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
@@ -417,78 +507,150 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>5.6904418568273502E-4</c:v>
+                  <c:v>3.7400816402754201E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3050905030278199E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.19859487883361E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0995797084665601E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0326271577093404E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9868754529179798E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.95826726444864E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9205469366551697E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9205628982074904E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8769062905559899E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8592273531398902E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8744769957511199E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8543132342882298E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8413807643665801E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8296661124961699E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8431360069960101E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8555376115622697E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8674513934886401E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8375800241109101E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8458041232137401E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8420744756603199E-4</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,7 +677,7 @@
         <c:axId val="192072752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
+          <c:max val="32"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -640,8 +802,878 @@
         <c:axId val="192063184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5.8000000000000011E-4"/>
-          <c:min val="4.4000000000000012E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Mean absolute error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in log consumption</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192072752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data for Inf Norm Plot'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree 3 monomial rule</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1.9767040447665099E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6928848208210199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5714586582483099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4701835465686401E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36996738653679E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25066552214577E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.17118586178135E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.10228615121051E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.04450141389481E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00031128984164E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6456023373340805E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3013692262083301E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9861094033244493E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6608779937408006E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3676129656934401E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1064583102366805E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8913277685779808E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.5567778944868897E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3420692093071104E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1236174390905699E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8118158929674202E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.4786820946310403E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.1032063856742104E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7435560147693398E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.4437287006837099E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.18547558561028E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9429763099456403E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.7249947053956401E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5459482564271202E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4220377076199203E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.32236991034238E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.35544275047944E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4312218192159598E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22C1-4CFF-B94F-50CEE5F903EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data for Inf Norm Plot'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1023 point QMC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1.9767040447665099E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-22C1-4CFF-B94F-50CEE5F903EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192072752"/>
+        <c:axId val="192063184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192072752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Periods</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of future uncertainty considered</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192063184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192063184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -858,6 +1890,33 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1374,11 +2433,538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1389,7 +2975,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9293087" cy="6079435"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1488,6 +3101,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1523,6 +3153,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1675,15 +3322,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.7400816402754201E-3</v>
+      </c>
+      <c r="C3">
+        <v>6.4881998810249301E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.9767040447665099E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.7400816402754201E-3</v>
+      </c>
+      <c r="F3">
+        <v>6.4881998810249301E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.9767040447665099E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3.3101219461231898E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.4090219060962596E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.6928848208210199E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3.17357351106775E-3</v>
+      </c>
+      <c r="C5">
+        <v>5.0675512046483503E-3</v>
+      </c>
+      <c r="D5">
+        <v>1.5714586582483099E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3.0520631703134398E-3</v>
+      </c>
+      <c r="C6">
+        <v>4.7717073288979497E-3</v>
+      </c>
+      <c r="D6">
+        <v>1.4701835465686401E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2.9526597785378499E-3</v>
+      </c>
+      <c r="C7">
+        <v>4.5304497502403496E-3</v>
+      </c>
+      <c r="D7">
+        <v>1.36996738653679E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2.7276737473014099E-3</v>
+      </c>
+      <c r="C8">
+        <v>4.0995894893176999E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.25066552214577E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2.6248750420700198E-3</v>
+      </c>
+      <c r="C9">
+        <v>3.8722881474278601E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.17118586178135E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2.53493561805801E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.6757656242418402E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.10228615121051E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2.4572763717441801E-3</v>
+      </c>
+      <c r="C11">
+        <v>3.5067337096386002E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.04450141389481E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2.3912575844339101E-3</v>
+      </c>
+      <c r="C12">
+        <v>3.3638442099469998E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.00031128984164E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2.33478952330172E-3</v>
+      </c>
+      <c r="C13">
+        <v>3.24256692152692E-3</v>
+      </c>
+      <c r="D13">
+        <v>9.6456023373340805E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2.2873168637966498E-3</v>
+      </c>
+      <c r="C14">
+        <v>3.1412647681097099E-3</v>
+      </c>
+      <c r="D14">
+        <v>9.3013692262083301E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2.2476006556273798E-3</v>
+      </c>
+      <c r="C15">
+        <v>3.0570430192578702E-3</v>
+      </c>
+      <c r="D15">
+        <v>8.9861094033244493E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>2.2147437892379002E-3</v>
+      </c>
+      <c r="C16">
+        <v>2.98723719131949E-3</v>
+      </c>
+      <c r="D16">
+        <v>8.6608779937408006E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>2.18761406320034E-3</v>
+      </c>
+      <c r="C17">
+        <v>2.9288257633514701E-3</v>
+      </c>
+      <c r="D17">
+        <v>8.3676129656934401E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2.1649856337734698E-3</v>
+      </c>
+      <c r="C18">
+        <v>2.8797575807609698E-3</v>
+      </c>
+      <c r="D18">
+        <v>8.1064583102366805E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2.1473849503767699E-3</v>
+      </c>
+      <c r="C19">
+        <v>2.8414192826340498E-3</v>
+      </c>
+      <c r="D19">
+        <v>7.8913277685779808E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2.1345084948281002E-3</v>
+      </c>
+      <c r="C20">
+        <v>2.8133932297788899E-3</v>
+      </c>
+      <c r="D20">
+        <v>7.5567778944868897E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1.81339003812334E-3</v>
+      </c>
+      <c r="C21">
+        <v>2.30733443388321E-3</v>
+      </c>
+      <c r="D21">
+        <v>7.3420692093071104E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1.7924257212901199E-3</v>
+      </c>
+      <c r="C22">
+        <v>2.2637524978168298E-3</v>
+      </c>
+      <c r="D22">
+        <v>7.1236174390905699E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1.77537107833506E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.2280346201456799E-3</v>
+      </c>
+      <c r="D23">
+        <v>6.8118158929674202E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1.76211607944527E-3</v>
+      </c>
+      <c r="C24">
+        <v>2.1999162272173601E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.4786820946310403E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>1.7521251302226001E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.17882170353425E-3</v>
+      </c>
+      <c r="D25">
+        <v>6.1032063856742104E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>1.7449411465290999E-3</v>
+      </c>
+      <c r="C26">
+        <v>2.1632500772310499E-3</v>
+      </c>
+      <c r="D26">
+        <v>5.7435560147693398E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1.7399484028263301E-3</v>
+      </c>
+      <c r="C27">
+        <v>2.1521550840283101E-3</v>
+      </c>
+      <c r="D27">
+        <v>5.4437287006837099E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1.7377591829206901E-3</v>
+      </c>
+      <c r="C28">
+        <v>2.1465894838719E-3</v>
+      </c>
+      <c r="D28">
+        <v>5.18547558561028E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>1.73764346141537E-3</v>
+      </c>
+      <c r="C29">
+        <v>2.1451555893955698E-3</v>
+      </c>
+      <c r="D29">
+        <v>4.9429763099456403E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1.7393559662726701E-3</v>
+      </c>
+      <c r="C30">
+        <v>2.1470726671506202E-3</v>
+      </c>
+      <c r="D30">
+        <v>4.7249947053956401E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>1.74262559523878E-3</v>
+      </c>
+      <c r="C31">
+        <v>2.1518903180695798E-3</v>
+      </c>
+      <c r="D31">
+        <v>4.5459482564271202E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>1.74708544199504E-3</v>
+      </c>
+      <c r="C32">
+        <v>2.1589301497410302E-3</v>
+      </c>
+      <c r="D32">
+        <v>4.4220377076199203E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>1.7530586585770801E-3</v>
+      </c>
+      <c r="C33">
+        <v>2.1687948293161001E-3</v>
+      </c>
+      <c r="D33">
+        <v>4.32236991034238E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>1.75996581163959E-3</v>
+      </c>
+      <c r="C34">
+        <v>2.18045528671972E-3</v>
+      </c>
+      <c r="D34">
+        <v>4.35544275047944E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>1.76805888780284E-3</v>
+      </c>
+      <c r="C35">
+        <v>2.1942672410295702E-3</v>
+      </c>
+      <c r="D35">
+        <v>4.4312218192159598E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1699,10 +3875,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.6904418568273502E-4</v>
+        <f>'Source Data'!B3</f>
+        <v>3.7400816402754201E-3</v>
       </c>
       <c r="C2">
-        <v>5.6904418568273502E-4</v>
+        <f>'Source Data'!E3</f>
+        <v>3.7400816402754201E-3</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1712,10 +3890,12 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.2944255760436197E-4</v>
+        <f>'Source Data'!B4</f>
+        <v>3.3101219461231898E-3</v>
       </c>
       <c r="C3">
-        <v>5.3050905030278199E-4</v>
+        <f>'Source Data'!E4</f>
+        <v>0</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1725,10 +3905,12 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.1578700705044798E-4</v>
+        <f>'Source Data'!B5</f>
+        <v>3.17357351106775E-3</v>
       </c>
       <c r="C4">
-        <v>5.19859487883361E-4</v>
+        <f>'Source Data'!E5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1736,10 +3918,12 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.9477195682145103E-4</v>
+        <f>'Source Data'!B6</f>
+        <v>3.0520631703134398E-3</v>
       </c>
       <c r="C5">
-        <v>5.0995797084665601E-4</v>
+        <f>'Source Data'!E6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,10 +3931,12 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.75342296195695E-4</v>
+        <f>'Source Data'!B7</f>
+        <v>2.9526597785378499E-3</v>
       </c>
       <c r="C6">
-        <v>5.0326271577093404E-4</v>
+        <f>'Source Data'!E7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,10 +3944,12 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.6195835580417301E-4</v>
+        <f>'Source Data'!B8</f>
+        <v>2.7276737473014099E-3</v>
       </c>
       <c r="C7">
-        <v>4.9868754529179798E-4</v>
+        <f>'Source Data'!E8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,10 +3957,12 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.53484151319983E-4</v>
+        <f>'Source Data'!B9</f>
+        <v>2.6248750420700198E-3</v>
       </c>
       <c r="C8">
-        <v>4.95826726444864E-4</v>
+        <f>'Source Data'!E9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1780,10 +3970,12 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.4826916223397999E-4</v>
+        <f>'Source Data'!B10</f>
+        <v>2.53493561805801E-3</v>
       </c>
       <c r="C9">
-        <v>4.9205469366551697E-4</v>
+        <f>'Source Data'!E10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,10 +3983,12 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.4833848388715398E-4</v>
+        <f>'Source Data'!B11</f>
+        <v>2.4572763717441801E-3</v>
       </c>
       <c r="C10">
-        <v>4.9205628982074904E-4</v>
+        <f>'Source Data'!E11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1802,10 +3996,12 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.4978592856210299E-4</v>
+        <f>'Source Data'!B12</f>
+        <v>2.3912575844339101E-3</v>
       </c>
       <c r="C11">
-        <v>4.8769062905559899E-4</v>
+        <f>'Source Data'!E12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,10 +4009,12 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.48147731166954E-4</v>
+        <f>'Source Data'!B13</f>
+        <v>2.33478952330172E-3</v>
       </c>
       <c r="C12">
-        <v>4.8592273531398902E-4</v>
+        <f>'Source Data'!E13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1824,10 +4022,12 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.4823610235986301E-4</v>
+        <f>'Source Data'!B14</f>
+        <v>2.2873168637966498E-3</v>
       </c>
       <c r="C13">
-        <v>4.8744769957511199E-4</v>
+        <f>'Source Data'!E14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1835,10 +4035,12 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.4977107010801403E-4</v>
+        <f>'Source Data'!B15</f>
+        <v>2.2476006556273798E-3</v>
       </c>
       <c r="C14">
-        <v>4.8543132342882298E-4</v>
+        <f>'Source Data'!E15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,10 +4048,12 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.4717588217279398E-4</v>
+        <f>'Source Data'!B16</f>
+        <v>2.2147437892379002E-3</v>
       </c>
       <c r="C15">
-        <v>4.8413807643665801E-4</v>
+        <f>'Source Data'!E16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,10 +4061,12 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.4810924483685801E-4</v>
+        <f>'Source Data'!B17</f>
+        <v>2.18761406320034E-3</v>
       </c>
       <c r="C16">
-        <v>4.8296661124961699E-4</v>
+        <f>'Source Data'!E17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,10 +4074,12 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.49908097391499E-4</v>
+        <f>'Source Data'!B18</f>
+        <v>2.1649856337734698E-3</v>
       </c>
       <c r="C17">
-        <v>4.8431360069960101E-4</v>
+        <f>'Source Data'!E18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,10 +4087,12 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.5238188822885903E-4</v>
+        <f>'Source Data'!B19</f>
+        <v>2.1473849503767699E-3</v>
       </c>
       <c r="C18">
-        <v>4.8555376115622697E-4</v>
+        <f>'Source Data'!E19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,10 +4100,12 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.5354170216847502E-4</v>
+        <f>'Source Data'!B20</f>
+        <v>2.1345084948281002E-3</v>
       </c>
       <c r="C19">
-        <v>4.8674513934886401E-4</v>
+        <f>'Source Data'!E20</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,10 +4113,12 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.5297381082394099E-4</v>
+        <f>'Source Data'!B21</f>
+        <v>1.81339003812334E-3</v>
       </c>
       <c r="C20">
-        <v>4.8375800241109101E-4</v>
+        <f>'Source Data'!E21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,10 +4126,12 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.5282695583581802E-4</v>
+        <f>'Source Data'!B22</f>
+        <v>1.7924257212901199E-3</v>
       </c>
       <c r="C21">
-        <v>4.8458041232137401E-4</v>
+        <f>'Source Data'!E22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,10 +4139,631 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.5427588803260402E-4</v>
+        <f>'Source Data'!B23</f>
+        <v>1.77537107833506E-3</v>
       </c>
       <c r="C22">
-        <v>4.8420744756603199E-4</v>
+        <f>'Source Data'!E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f>'Source Data'!B24</f>
+        <v>1.76211607944527E-3</v>
+      </c>
+      <c r="C23">
+        <f>'Source Data'!E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>'Source Data'!B25</f>
+        <v>1.7521251302226001E-3</v>
+      </c>
+      <c r="C24">
+        <f>'Source Data'!E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f>'Source Data'!B26</f>
+        <v>1.7449411465290999E-3</v>
+      </c>
+      <c r="C25">
+        <f>'Source Data'!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>'Source Data'!B27</f>
+        <v>1.7399484028263301E-3</v>
+      </c>
+      <c r="C26">
+        <f>'Source Data'!E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f>'Source Data'!B28</f>
+        <v>1.7377591829206901E-3</v>
+      </c>
+      <c r="C27">
+        <f>'Source Data'!E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f>'Source Data'!B29</f>
+        <v>1.73764346141537E-3</v>
+      </c>
+      <c r="C28">
+        <f>'Source Data'!E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f>'Source Data'!B30</f>
+        <v>1.7393559662726701E-3</v>
+      </c>
+      <c r="C29">
+        <f>'Source Data'!E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f>'Source Data'!B31</f>
+        <v>1.74262559523878E-3</v>
+      </c>
+      <c r="C30">
+        <f>'Source Data'!E31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f>'Source Data'!B32</f>
+        <v>1.74708544199504E-3</v>
+      </c>
+      <c r="C31">
+        <f>'Source Data'!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f>'Source Data'!B33</f>
+        <v>1.7530586585770801E-3</v>
+      </c>
+      <c r="C32">
+        <f>'Source Data'!E33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f>'Source Data'!B34</f>
+        <v>1.75996581163959E-3</v>
+      </c>
+      <c r="C33">
+        <f>'Source Data'!E34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f>'Source Data'!B35</f>
+        <v>1.76805888780284E-3</v>
+      </c>
+      <c r="C34">
+        <f>'Source Data'!E35</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>'Source Data'!D3</f>
+        <v>1.9767040447665099E-2</v>
+      </c>
+      <c r="C2">
+        <f>'Source Data'!G3</f>
+        <v>1.9767040447665099E-2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>'Source Data'!D4</f>
+        <v>1.6928848208210199E-2</v>
+      </c>
+      <c r="C3">
+        <f>'Source Data'!G4</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>'Source Data'!D5</f>
+        <v>1.5714586582483099E-2</v>
+      </c>
+      <c r="C4">
+        <f>'Source Data'!G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>'Source Data'!D6</f>
+        <v>1.4701835465686401E-2</v>
+      </c>
+      <c r="C5">
+        <f>'Source Data'!G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>'Source Data'!D7</f>
+        <v>1.36996738653679E-2</v>
+      </c>
+      <c r="C6">
+        <f>'Source Data'!G7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>'Source Data'!D8</f>
+        <v>1.25066552214577E-2</v>
+      </c>
+      <c r="C7">
+        <f>'Source Data'!G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f>'Source Data'!D9</f>
+        <v>1.17118586178135E-2</v>
+      </c>
+      <c r="C8">
+        <f>'Source Data'!G9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>'Source Data'!D10</f>
+        <v>1.10228615121051E-2</v>
+      </c>
+      <c r="C9">
+        <f>'Source Data'!G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>'Source Data'!D11</f>
+        <v>1.04450141389481E-2</v>
+      </c>
+      <c r="C10">
+        <f>'Source Data'!G11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>'Source Data'!D12</f>
+        <v>1.00031128984164E-2</v>
+      </c>
+      <c r="C11">
+        <f>'Source Data'!G12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>'Source Data'!D13</f>
+        <v>9.6456023373340805E-3</v>
+      </c>
+      <c r="C12">
+        <f>'Source Data'!G13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>'Source Data'!D14</f>
+        <v>9.3013692262083301E-3</v>
+      </c>
+      <c r="C13">
+        <f>'Source Data'!G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>'Source Data'!D15</f>
+        <v>8.9861094033244493E-3</v>
+      </c>
+      <c r="C14">
+        <f>'Source Data'!G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>'Source Data'!D16</f>
+        <v>8.6608779937408006E-3</v>
+      </c>
+      <c r="C15">
+        <f>'Source Data'!G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f>'Source Data'!D17</f>
+        <v>8.3676129656934401E-3</v>
+      </c>
+      <c r="C16">
+        <f>'Source Data'!G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f>'Source Data'!D18</f>
+        <v>8.1064583102366805E-3</v>
+      </c>
+      <c r="C17">
+        <f>'Source Data'!G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>'Source Data'!D19</f>
+        <v>7.8913277685779808E-3</v>
+      </c>
+      <c r="C18">
+        <f>'Source Data'!G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f>'Source Data'!D20</f>
+        <v>7.5567778944868897E-3</v>
+      </c>
+      <c r="C19">
+        <f>'Source Data'!G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>'Source Data'!D21</f>
+        <v>7.3420692093071104E-3</v>
+      </c>
+      <c r="C20">
+        <f>'Source Data'!G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>'Source Data'!D22</f>
+        <v>7.1236174390905699E-3</v>
+      </c>
+      <c r="C21">
+        <f>'Source Data'!G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f>'Source Data'!D23</f>
+        <v>6.8118158929674202E-3</v>
+      </c>
+      <c r="C22">
+        <f>'Source Data'!G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f>'Source Data'!D24</f>
+        <v>6.4786820946310403E-3</v>
+      </c>
+      <c r="C23">
+        <f>'Source Data'!G24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f>'Source Data'!D25</f>
+        <v>6.1032063856742104E-3</v>
+      </c>
+      <c r="C24">
+        <f>'Source Data'!G25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f>'Source Data'!D26</f>
+        <v>5.7435560147693398E-3</v>
+      </c>
+      <c r="C25">
+        <f>'Source Data'!G26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f>'Source Data'!D27</f>
+        <v>5.4437287006837099E-3</v>
+      </c>
+      <c r="C26">
+        <f>'Source Data'!G27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f>'Source Data'!D28</f>
+        <v>5.18547558561028E-3</v>
+      </c>
+      <c r="C27">
+        <f>'Source Data'!G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f>'Source Data'!D29</f>
+        <v>4.9429763099456403E-3</v>
+      </c>
+      <c r="C28">
+        <f>'Source Data'!G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f>'Source Data'!D30</f>
+        <v>4.7249947053956401E-3</v>
+      </c>
+      <c r="C29">
+        <f>'Source Data'!G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f>'Source Data'!D31</f>
+        <v>4.5459482564271202E-3</v>
+      </c>
+      <c r="C30">
+        <f>'Source Data'!G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f>'Source Data'!D32</f>
+        <v>4.4220377076199203E-3</v>
+      </c>
+      <c r="C31">
+        <f>'Source Data'!G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f>'Source Data'!D33</f>
+        <v>4.32236991034238E-3</v>
+      </c>
+      <c r="C32">
+        <f>'Source Data'!G33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f>'Source Data'!D34</f>
+        <v>4.35544275047944E-3</v>
+      </c>
+      <c r="C33">
+        <f>'Source Data'!G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f>'Source Data'!D35</f>
+        <v>4.4312218192159598E-3</v>
+      </c>
+      <c r="C34">
+        <f>'Source Data'!G35</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/BorrowingConstraint/Results.xlsx
+++ b/Examples/BorrowingConstraint/Results.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Inf Norm Plot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -844,7 +845,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> in log consumption</a:t>
+                  <a:t> in X=C+D</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -1711,12 +1712,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Mean absolute error</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> in log consumption</a:t>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Maximum absolute error in X=C+D</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>

--- a/Examples/BorrowingConstraint/Results.xlsx
+++ b/Examples/BorrowingConstraint/Results.xlsx
@@ -9,17 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6825" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14175" windowHeight="6825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Source Data" sheetId="3" r:id="rId1"/>
     <sheet name="Data for 1 Norm Plot" sheetId="1" r:id="rId2"/>
     <sheet name="1 Norm Plot" sheetId="2" r:id="rId3"/>
     <sheet name="Data for Inf Norm Plot" sheetId="4" r:id="rId4"/>
-    <sheet name="Inf Norm Plot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -155,7 +153,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -170,7 +168,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -416,7 +414,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -432,7 +430,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="6350">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -716,17 +714,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="900"/>
                   <a:t>Periods</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t> of future uncertainty considered</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41366749460666824"/>
+              <c:y val="0.89954036051871578"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -840,14 +846,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="900"/>
                   <a:t>Mean absolute error</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
                   <a:t> in X=C+D</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -931,876 +937,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data for Inf Norm Plot'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Degree 3 monomial rule</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$B$2:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>1.9767040447665099E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6928848208210199E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.5714586582483099E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4701835465686401E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.36996738653679E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.25066552214577E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.17118586178135E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.10228615121051E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.04450141389481E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.00031128984164E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.6456023373340805E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.3013692262083301E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.9861094033244493E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.6608779937408006E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.3676129656934401E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.1064583102366805E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.8913277685779808E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.5567778944868897E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.3420692093071104E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.1236174390905699E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.8118158929674202E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.4786820946310403E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.1032063856742104E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.7435560147693398E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.4437287006837099E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.18547558561028E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.9429763099456403E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.7249947053956401E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.5459482564271202E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.4220377076199203E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.32236991034238E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.35544275047944E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.4312218192159598E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22C1-4CFF-B94F-50CEE5F903EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data for Inf Norm Plot'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1023 point QMC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="lgDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$A$2:$A$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Data for Inf Norm Plot'!$C$2:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>1.9767040447665099E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22C1-4CFF-B94F-50CEE5F903EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="192072752"/>
-        <c:axId val="192063184"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="192072752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="32"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Periods</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> of future uncertainty considered</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192063184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
-        <c:minorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="192063184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Maximum absolute error in X=C+D</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192072752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35663900020034456"/>
+          <c:y val="6.8379640034075692E-2"/>
+          <c:w val="0.3468144849818523"/>
+          <c:h val="3.5259208172362999E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1863,33 +1009,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
-  <a:schemeClr val="dk1"/>
-  <cs:variation>
-    <a:tint val="88500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="55000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="75000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="98500"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:tint val="80000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -2432,534 +1551,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -2971,33 +1563,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>

--- a/Examples/BorrowingConstraint/Results.xlsx
+++ b/Examples/BorrowingConstraint/Results.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Data for 1 Norm Plot" sheetId="1" r:id="rId2"/>
     <sheet name="1 Norm Plot" sheetId="2" r:id="rId3"/>
     <sheet name="Data for Inf Norm Plot" sheetId="4" r:id="rId4"/>
+    <sheet name="Inf Norm Plot" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>1023 point QMC</t>
   </si>
@@ -48,6 +49,15 @@
   </si>
   <si>
     <t>Infinity</t>
+  </si>
+  <si>
+    <t>Sparse Degree 5</t>
+  </si>
+  <si>
+    <t>Sparse, degree 5</t>
+  </si>
+  <si>
+    <t>Seconds</t>
   </si>
 </sst>
 </file>
@@ -94,9 +104,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,10 +190,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -280,114 +292,192 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$B$2:$B$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>3.7400816402754201E-3</c:v>
+                  <c:v>-2.4271189177101777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3101219461231898E-3</c:v>
+                  <c:v>-2.4801560063593762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17357351106775E-3</c:v>
+                  <c:v>-2.4984514374535927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0520631703134398E-3</c:v>
+                  <c:v>-2.5154064817805151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9526597785378499E-3</c:v>
+                  <c:v>-2.5297865919160429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7276737473014099E-3</c:v>
+                  <c:v>-2.5642075761783181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6248750420700198E-3</c:v>
+                  <c:v>-2.580891366479424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.53493561805801E-3</c:v>
+                  <c:v>-2.5960330663413784</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4572763717441801E-3</c:v>
+                  <c:v>-2.6095459953418767</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3912575844339101E-3</c:v>
+                  <c:v>-2.6213736394957206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.33478952330172E-3</c:v>
+                  <c:v>-2.6317522641294211</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2873168637966498E-3</c:v>
+                  <c:v>-2.6406736680709093</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2476006556273798E-3</c:v>
+                  <c:v>-2.6482808498929806</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2147437892379002E-3</c:v>
+                  <c:v>-2.6546765075249192</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.18761406320034E-3</c:v>
+                  <c:v>-2.660029293401863</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1649856337734698E-3</c:v>
+                  <c:v>-2.6645449811552386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1473849503767699E-3</c:v>
+                  <c:v>-2.6680900949029969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1345084948281002E-3</c:v>
+                  <c:v>-2.6707021124694852</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.81339003812334E-3</c:v>
+                  <c:v>-2.7415087744006978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7924257212901199E-3</c:v>
+                  <c:v>-2.7465588325930619</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.77537107833506E-3</c:v>
+                  <c:v>-2.7507108592680467</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.76211607944527E-3</c:v>
+                  <c:v>-2.753965485820657</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7521251302226001E-3</c:v>
+                  <c:v>-2.7564348813730475</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7449411465290999E-3</c:v>
+                  <c:v>-2.7582192163659407</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7399484028263301E-3</c:v>
+                  <c:v>-2.7594636302806514</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7377591829206901E-3</c:v>
+                  <c:v>-2.7600104078499768</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.73764346141537E-3</c:v>
+                  <c:v>-2.7600393295125061</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7393559662726701E-3</c:v>
+                  <c:v>-2.7596115287691561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.74262559523878E-3</c:v>
+                  <c:v>-2.7587959114488902</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.74708544199504E-3</c:v>
+                  <c:v>-2.7576858551317875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7530586585770801E-3</c:v>
+                  <c:v>-2.7562035518639174</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.75996581163959E-3</c:v>
+                  <c:v>-2.7544957685270344</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.76805888780284E-3</c:v>
+                  <c:v>-2.7525032742652988</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.8496673284504133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.8482074797127206</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.8464919402259587</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.844537502990244</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.8423898750452898</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.8400017692006965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.8374048550496429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.8346889861668285</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.8318977736823587</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.8289725347729324</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.8259590198795914</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.8228958573497476</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.8198107369290439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,7 +498,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1023 point QMC</c:v>
+                  <c:v>Sparse, degree 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -418,7 +508,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="lgDash"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -440,10 +530,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$A$2:$A$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -542,114 +632,192 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data for 1 Norm Plot'!$C$2:$C$45</c:f>
+              <c:f>'Data for 1 Norm Plot'!$C$2:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>3.7400816402754201E-3</c:v>
+                  <c:v>-2.4271189177101777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-2.4801590278654886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-2.499378916170921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-2.517867693618542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.53427863616003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2.5665840657866497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-2.5845707391345738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-2.6011911739515274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-2.6163768374540748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-2.630356663506018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-2.6430973599400036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-2.6545484659816876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-2.66491537290623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-2.6743289876073137</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-2.682768559452434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-2.6902938233090854</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-2.6969063344275979</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-2.7026051154784025</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-2.7533216266512448</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-2.7611545444497256</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-2.7682455694392027</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-2.7746405852980756</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-2.7803841246745957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-2.7854260358753016</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-2.7899237965964945</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-2.7939056845641179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-2.7973340848584485</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-2.800223683132264</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-2.8027152264604709</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-2.8048008990172568</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-2.8065067191896738</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-2.8078728192834985</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-2.808959087713105</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.8699292869418467</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.8724589776867169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.8746756190365175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.8766256597868831</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.8782617894846352</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.8796153518998011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.8807332156256389</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.8816130523030639</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.8822664606172816</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.8827070644614419</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.8829859390959021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.8831012326965428</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.8830393101264113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +844,8 @@
         <c:axId val="192072752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="32"/>
+          <c:max val="45"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -802,7 +971,7 @@
         <c:crossAx val="192063184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="4"/>
+        <c:majorUnit val="5"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
@@ -847,7 +1016,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB" sz="900"/>
-                  <a:t>Mean absolute error</a:t>
+                  <a:t>Log10 mean absolute error</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" sz="900" baseline="0"/>
@@ -943,7 +1112,1055 @@
           <c:yMode val="edge"/>
           <c:x val="0.35663900020034456"/>
           <c:y val="6.8379640034075692E-2"/>
-          <c:w val="0.3468144849818523"/>
+          <c:w val="0.34778136490839912"/>
+          <c:h val="3.5259208172362999E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data for Inf Norm Plot'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree 3 monomial rule</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$B$2:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-1.7040583490709007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7713725890756429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.803697039864856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8326284419281615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8632897715411836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9028588224481398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9313741789320329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9577056488964883</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9810909677982744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9998648295770016</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0156706468575796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0314531155733238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.046428298299094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0624380792865051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.0773984158036316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0911688464393623</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1028499176965418</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.121663342188242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1341815259776995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.1472994115772823</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.1667370984881855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1885133301233299</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2144419437180032</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2408191390631407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.2641035268801568</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.2852114061535644</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.306011470964378</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.3255986738041883</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.3423755118745913</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.3543775584236468</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.3642780687470744</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3609676904114325</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.353476509401867</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.4051532518093328</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.4108037164424996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.4164757266887684</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.4242325533563371</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.434112027301742</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.4412434946852186</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.4476762980721438</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.4520343597554621</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.4445232790385378</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.4367636948093647</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.4289383676630938</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.420789325688371</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.4124619442191721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51BC-4E81-8589-2FA3B4272540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data for Inf Norm Plot'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sparse, degree 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$A$2:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data for Inf Norm Plot'!$C$2:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-1.7040583490709007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7745005790829782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8095605025946906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8427784965017409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.874367192929888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.9066097115383018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9316103829668658</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9542275984623421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9737123465522042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.9939474001792172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.0117406567223011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0287708475276522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.0442260517209725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.060586441532648</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.0762391014166131</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.0912578010076701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.1052951446282506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.1219614400863542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.1694002460411643</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.1871485160434134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.2035329149273384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.2217139891981317</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2422127858141629</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2619585263812896</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.2790851088045354</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.2818418226884787</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.2837285910503331</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2834998831913866</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.281605128763438</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.2791266984749226</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.2773458588494706</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.2752024557122907</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2724656254482207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.3016791542977519</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.2987681145136674</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.2958667765772476</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.2927833308374734</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.2891715998677959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-2.285176564483868</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.2821055622601882</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.2792271276757838</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.2759963862867796</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.2722170878157746</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.2687402944471136</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.2651905003253368</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.2617902130716758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51BC-4E81-8589-2FA3B4272540}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192072752"/>
+        <c:axId val="192063184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192072752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>Periods</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
+                  <a:t> of future uncertainty considered</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41366749460666824"/>
+              <c:y val="0.89954036051871578"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192063184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="192063184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-1.7000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900"/>
+                  <a:t>Log10 mean absolute error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" baseline="0"/>
+                  <a:t> in X=C+D</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192072752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35663900020034456"/>
+          <c:y val="6.8379640034075692E-2"/>
+          <c:w val="0.34778136490839912"/>
           <c:h val="3.5259208172362999E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1009,6 +2226,33 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -1551,11 +2795,538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1566,7 +3337,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1886,27 +3684,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1919,17 +3724,32 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1942,17 +3762,26 @@
       <c r="D3">
         <v>1.9767040447665099E-2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.7400816402754201E-3</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.4881998810249301E-3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.9767040447665099E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>3.7400816402754201E-3</v>
+      </c>
+      <c r="K3">
+        <v>6.4881998810249301E-3</v>
+      </c>
+      <c r="L3">
+        <v>1.9767040447665099E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1965,8 +3794,26 @@
       <c r="D4">
         <v>1.6928848208210199E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3.3100989167748601E-3</v>
+      </c>
+      <c r="G4">
+        <v>5.4396913749086302E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.68073568463473E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.3139738476372299E-3</v>
+      </c>
+      <c r="K4">
+        <v>5.4440463701650602E-3</v>
+      </c>
+      <c r="L4">
+        <v>1.6839306313467702E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1979,8 +3826,26 @@
       <c r="D5">
         <v>1.5714586582483099E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3.1668032635417801E-3</v>
+      </c>
+      <c r="G5">
+        <v>5.1028640480378397E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.55038478396593E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.17281875863256E-3</v>
+      </c>
+      <c r="K5">
+        <v>5.1084347132063796E-3</v>
+      </c>
+      <c r="L5">
+        <v>1.5632846497937398E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1993,8 +3858,26 @@
       <c r="D6">
         <v>1.4701835465686401E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>3.0348155899381402E-3</v>
+      </c>
+      <c r="G6">
+        <v>4.80511411944672E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.43622176370651E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.04451779843414E-3</v>
+      </c>
+      <c r="K6">
+        <v>4.8162049859725104E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.45683547772651E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2007,8 +3890,26 @@
       <c r="D7">
         <v>1.36996738653679E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2.9222768917232501E-3</v>
+      </c>
+      <c r="G7">
+        <v>4.5565424098679601E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.3354659120416199E-2</v>
+      </c>
+      <c r="J7">
+        <v>2.93599304755923E-3</v>
+      </c>
+      <c r="K7">
+        <v>4.5747658268370101E-3</v>
+      </c>
+      <c r="L7">
+        <v>1.3621026957048501E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2021,8 +3922,26 @@
       <c r="D8">
         <v>1.25066552214577E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2.7127884905810101E-3</v>
+      </c>
+      <c r="G8">
+        <v>4.12971788939608E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.23991035920773E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.7314678147828601E-3</v>
+      </c>
+      <c r="K8">
+        <v>4.1584966417235599E-3</v>
+      </c>
+      <c r="L8">
+        <v>1.27231411969904E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2035,8 +3954,26 @@
       <c r="D9">
         <v>1.17118586178135E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>2.60273085655665E-3</v>
+      </c>
+      <c r="G9">
+        <v>3.9017380146764802E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.1705490505343599E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.6333439191066799E-3</v>
+      </c>
+      <c r="K9">
+        <v>3.9492607827897397E-3</v>
+      </c>
+      <c r="L9">
+        <v>1.19346223727285E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2049,8 +3986,26 @@
       <c r="D10">
         <v>1.10228615121051E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2.5050063208164599E-3</v>
+      </c>
+      <c r="G10">
+        <v>3.70302603271616E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.11114926042526E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.54135737189252E-3</v>
+      </c>
+      <c r="K10">
+        <v>3.7624903870653202E-3</v>
+      </c>
+      <c r="L10">
+        <v>1.1221035969413099E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2063,8 +4018,26 @@
       <c r="D11">
         <v>1.04450141389481E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2.4189292302332199E-3</v>
+      </c>
+      <c r="G11">
+        <v>3.53085767458427E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.06239900051437E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.46013355477414E-3</v>
+      </c>
+      <c r="K11">
+        <v>3.6011374729188498E-3</v>
+      </c>
+      <c r="L11">
+        <v>1.05740101600761E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2077,8 +4050,26 @@
       <c r="D12">
         <v>1.00031128984164E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2.34230441223893E-3</v>
+      </c>
+      <c r="G12">
+        <v>3.3801840718108698E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.0140341936220499E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.3885285932906701E-3</v>
+      </c>
+      <c r="K12">
+        <v>3.4620420817679299E-3</v>
+      </c>
+      <c r="L12">
+        <v>9.9761974890790993E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2091,8 +4082,26 @@
       <c r="D13">
         <v>9.6456023373340805E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2.2745874576266898E-3</v>
+      </c>
+      <c r="G13">
+        <v>3.2489523748862699E-3</v>
+      </c>
+      <c r="H13">
+        <v>9.7332828295063293E-3</v>
+      </c>
+      <c r="J13">
+        <v>2.3254991490637401E-3</v>
+      </c>
+      <c r="K13">
+        <v>3.3423470830123599E-3</v>
+      </c>
+      <c r="L13">
+        <v>9.4310548354148392E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2105,8 +4114,26 @@
       <c r="D14">
         <v>9.3013692262083301E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2.2153968507708098E-3</v>
+      </c>
+      <c r="G14">
+        <v>3.1356904114435901E-3</v>
+      </c>
+      <c r="H14">
+        <v>9.3589936470095392E-3</v>
+      </c>
+      <c r="J14">
+        <v>2.2702012668817501E-3</v>
+      </c>
+      <c r="K14">
+        <v>3.2397556061767E-3</v>
+      </c>
+      <c r="L14">
+        <v>8.9344589351160204E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2119,8 +4146,26 @@
       <c r="D15">
         <v>8.9861094033244493E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2.1631399944669798E-3</v>
+      </c>
+      <c r="G15">
+        <v>3.03721030222415E-3</v>
+      </c>
+      <c r="H15">
+        <v>9.0317924355723892E-3</v>
+      </c>
+      <c r="J15">
+        <v>2.2218299904038599E-3</v>
+      </c>
+      <c r="K15">
+        <v>3.15218394636076E-3</v>
+      </c>
+      <c r="L15">
+        <v>8.47819489145199E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2133,8 +4178,26 @@
       <c r="D16">
         <v>8.6608779937408006E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2.1167570378147599E-3</v>
+      </c>
+      <c r="G16">
+        <v>2.9504404086920701E-3</v>
+      </c>
+      <c r="H16">
+        <v>8.6978829405636206E-3</v>
+      </c>
+      <c r="J16">
+        <v>2.1796076020380501E-3</v>
+      </c>
+      <c r="K16">
+        <v>3.0777565074758101E-3</v>
+      </c>
+      <c r="L16">
+        <v>8.0615170863755099E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2147,8 +4210,26 @@
       <c r="D17">
         <v>8.3676129656934401E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>2.0760195575280399E-3</v>
+      </c>
+      <c r="G17">
+        <v>2.8749461135125901E-3</v>
+      </c>
+      <c r="H17">
+        <v>8.3899794788383202E-3</v>
+      </c>
+      <c r="J17">
+        <v>2.1429558105201699E-3</v>
+      </c>
+      <c r="K17">
+        <v>3.0149677558040798E-3</v>
+      </c>
+      <c r="L17">
+        <v>7.6827396426273099E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2161,8 +4242,17 @@
       <c r="D18">
         <v>8.1064583102366805E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2.0403570675588101E-3</v>
+      </c>
+      <c r="G18">
+        <v>2.8096457147706701E-3</v>
+      </c>
+      <c r="H18">
+        <v>8.1047980711959101E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2175,8 +4265,17 @@
       <c r="D19">
         <v>7.8913277685779808E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2.0095261663135898E-3</v>
+      </c>
+      <c r="G19">
+        <v>2.75414004480619E-3</v>
+      </c>
+      <c r="H19">
+        <v>7.8470217320066298E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2189,8 +4288,17 @@
       <c r="D20">
         <v>7.5567778944868897E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1.9833295589399202E-3</v>
+      </c>
+      <c r="G20">
+        <v>2.70813684255195E-3</v>
+      </c>
+      <c r="H20">
+        <v>7.5515927337963503E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2203,8 +4311,17 @@
       <c r="D21">
         <v>7.3420692093071104E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1.7647304254017099E-3</v>
+      </c>
+      <c r="G21">
+        <v>2.34790057874407E-3</v>
+      </c>
+      <c r="H21">
+        <v>6.7701728050063E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2217,8 +4334,18 @@
       <c r="D22">
         <v>7.1236174390905699E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1.7331871303372501E-3</v>
+      </c>
+      <c r="G22">
+        <v>2.2968381406983998E-3</v>
+      </c>
+      <c r="H22">
+        <v>6.4990740296488004E-3</v>
+      </c>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2231,8 +4358,18 @@
       <c r="D23">
         <v>6.8118158929674202E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1.70511796673787E-3</v>
+      </c>
+      <c r="G23">
+        <v>2.2525339290581001E-3</v>
+      </c>
+      <c r="H23">
+        <v>6.2584542966119001E-3</v>
+      </c>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2245,8 +4382,18 @@
       <c r="D24">
         <v>6.4786820946310403E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1.68019394273854E-3</v>
+      </c>
+      <c r="G24">
+        <v>2.21442809030981E-3</v>
+      </c>
+      <c r="H24">
+        <v>6.0018620728639598E-3</v>
+      </c>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2259,8 +4406,18 @@
       <c r="D25">
         <v>6.1032063856742104E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1.65811968538502E-3</v>
+      </c>
+      <c r="G25">
+        <v>2.1820906374216101E-3</v>
+      </c>
+      <c r="H25">
+        <v>5.7251545404772303E-3</v>
+      </c>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2273,8 +4430,18 @@
       <c r="D26">
         <v>5.7435560147693398E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1.6389811702542099E-3</v>
+      </c>
+      <c r="G26">
+        <v>2.15504796328796E-3</v>
+      </c>
+      <c r="H26">
+        <v>5.4706820351803102E-3</v>
+      </c>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2287,8 +4454,18 @@
       <c r="D27">
         <v>5.4437287006837099E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1.6220946929448E-3</v>
+      </c>
+      <c r="G27">
+        <v>2.1323018932470198E-3</v>
+      </c>
+      <c r="H27">
+        <v>5.2591419274783903E-3</v>
+      </c>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2301,8 +4478,18 @@
       <c r="D28">
         <v>5.18547558561028E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1.6072902692432099E-3</v>
+      </c>
+      <c r="G28">
+        <v>2.1136392615708601E-3</v>
+      </c>
+      <c r="H28">
+        <v>5.2258648907851897E-3</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2315,8 +4502,17 @@
       <c r="D29">
         <v>4.9429763099456403E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1.59465197520224E-3</v>
+      </c>
+      <c r="G29">
+        <v>2.0990730199552401E-3</v>
+      </c>
+      <c r="H29">
+        <v>5.2032106554050798E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2329,8 +4525,17 @@
       <c r="D30">
         <v>4.7249947053956401E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1.58407710428144E-3</v>
+      </c>
+      <c r="G30">
+        <v>2.08822401832723E-3</v>
+      </c>
+      <c r="H30">
+        <v>5.20595148821723E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2343,8 +4548,17 @@
       <c r="D31">
         <v>4.5459482564271202E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1.57501528757423E-3</v>
+      </c>
+      <c r="G31">
+        <v>2.0800539047234798E-3</v>
+      </c>
+      <c r="H31">
+        <v>5.2287138047225597E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2357,8 +4571,17 @@
       <c r="D32">
         <v>4.4220377076199203E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1.5674695070353E-3</v>
+      </c>
+      <c r="G32">
+        <v>2.0746205652305799E-3</v>
+      </c>
+      <c r="H32">
+        <v>5.2586383164132701E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2371,8 +4594,20 @@
       <c r="D33">
         <v>4.32236991034238E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1.5613248817355401E-3</v>
+      </c>
+      <c r="G33">
+        <v>2.07154925513456E-3</v>
+      </c>
+      <c r="H33">
+        <v>5.28024581657316E-3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1733.175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2385,8 +4620,20 @@
       <c r="D34">
         <v>4.35544275047944E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1.5564213541856601E-3</v>
+      </c>
+      <c r="G34">
+        <v>2.0705893698926702E-3</v>
+      </c>
+      <c r="H34">
+        <v>5.3063701870642603E-3</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1946.288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2399,11 +4646,404 @@
       <c r="D35">
         <v>4.4312218192159598E-3</v>
       </c>
+      <c r="E35">
+        <v>853.93399999999997</v>
+      </c>
+      <c r="F35">
+        <v>1.55253325794647E-3</v>
+      </c>
+      <c r="G35">
+        <v>2.07129389343951E-3</v>
+      </c>
+      <c r="H35">
+        <v>5.3399153750823304E-3</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2021.9059999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>1.4136199693285099E-3</v>
+      </c>
+      <c r="C36">
+        <v>1.6857376296500299E-3</v>
+      </c>
+      <c r="D36">
+        <v>3.9341122584212497E-3</v>
+      </c>
+      <c r="E36">
+        <v>1156.2080000000001</v>
+      </c>
+      <c r="F36">
+        <v>1.3491825424329299E-3</v>
+      </c>
+      <c r="G36">
+        <v>1.77911425888008E-3</v>
+      </c>
+      <c r="H36">
+        <v>4.9925318678940003E-3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2662.5430000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>1.41837974349713E-3</v>
+      </c>
+      <c r="C37">
+        <v>1.6923836841264499E-3</v>
+      </c>
+      <c r="D37">
+        <v>3.88325833921499E-3</v>
+      </c>
+      <c r="E37">
+        <v>1408.9110000000001</v>
+      </c>
+      <c r="F37">
+        <v>1.3413466294926E-3</v>
+      </c>
+      <c r="G37">
+        <v>1.7741885443909599E-3</v>
+      </c>
+      <c r="H37">
+        <v>5.0261087996607001E-3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2398.047</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>1.4239936733249699E-3</v>
+      </c>
+      <c r="C38">
+        <v>1.7006030263047799E-3</v>
+      </c>
+      <c r="D38">
+        <v>3.8328716224391201E-3</v>
+      </c>
+      <c r="E38">
+        <v>1199.9380000000001</v>
+      </c>
+      <c r="F38">
+        <v>1.3345178310846201E-3</v>
+      </c>
+      <c r="G38">
+        <v>1.77076906973834E-3</v>
+      </c>
+      <c r="H38">
+        <v>5.0597985170161598E-3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2377.8829999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1.4304164535526799E-3</v>
+      </c>
+      <c r="C39">
+        <v>1.7102475421418299E-3</v>
+      </c>
+      <c r="D39">
+        <v>3.7650213793160902E-3</v>
+      </c>
+      <c r="E39">
+        <v>1207.67</v>
+      </c>
+      <c r="F39">
+        <v>1.32853909888163E-3</v>
+      </c>
+      <c r="G39">
+        <v>1.76854619200088E-3</v>
+      </c>
+      <c r="H39">
+        <v>5.09585039209892E-3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2523.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>1.43750751891556E-3</v>
+      </c>
+      <c r="C40">
+        <v>1.7210532835156499E-3</v>
+      </c>
+      <c r="D40">
+        <v>3.6803402613860602E-3</v>
+      </c>
+      <c r="E40">
+        <v>1220.845</v>
+      </c>
+      <c r="F40">
+        <v>1.3235434725212499E-3</v>
+      </c>
+      <c r="G40">
+        <v>1.76769682554191E-3</v>
+      </c>
+      <c r="H40">
+        <v>5.1384058108131497E-3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2623.8249999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>1.4454338824191201E-3</v>
+      </c>
+      <c r="C41">
+        <v>1.7333603895872999E-3</v>
+      </c>
+      <c r="D41">
+        <v>3.6203995756181298E-3</v>
+      </c>
+      <c r="E41">
+        <v>1245.336</v>
+      </c>
+      <c r="F41">
+        <v>1.31942481594954E-3</v>
+      </c>
+      <c r="G41">
+        <v>1.76806451809252E-3</v>
+      </c>
+      <c r="H41">
+        <v>5.1858916117918904E-3</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2656.4059999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>1.4541029146279999E-3</v>
+      </c>
+      <c r="C42">
+        <v>1.7470025994870001E-3</v>
+      </c>
+      <c r="D42">
+        <v>3.5671691375582502E-3</v>
+      </c>
+      <c r="E42">
+        <v>1253.2860000000001</v>
+      </c>
+      <c r="F42">
+        <v>1.3160330147569E-3</v>
+      </c>
+      <c r="G42">
+        <v>1.76951877519288E-3</v>
+      </c>
+      <c r="H42">
+        <v>5.2226922763238303E-3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2675.6819999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>1.4632246669293201E-3</v>
+      </c>
+      <c r="C43">
+        <v>1.7615040473635301E-3</v>
+      </c>
+      <c r="D43">
+        <v>3.5315522836553699E-3</v>
+      </c>
+      <c r="E43">
+        <v>1261.826</v>
+      </c>
+      <c r="F43">
+        <v>1.3133695638801899E-3</v>
+      </c>
+      <c r="G43">
+        <v>1.77193918470918E-3</v>
+      </c>
+      <c r="H43">
+        <v>5.2574224138233804E-3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2631.8910000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>1.47265910320012E-3</v>
+      </c>
+      <c r="C44">
+        <v>1.7765728060042899E-3</v>
+      </c>
+      <c r="D44">
+        <v>3.5931613618747599E-3</v>
+      </c>
+      <c r="E44">
+        <v>1280.039</v>
+      </c>
+      <c r="F44">
+        <v>1.31139504800649E-3</v>
+      </c>
+      <c r="G44">
+        <v>1.77523885140501E-3</v>
+      </c>
+      <c r="H44">
+        <v>5.2966785117711202E-3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2658.1480000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>1.4826118440700901E-3</v>
+      </c>
+      <c r="C45">
+        <v>1.7925622814956501E-3</v>
+      </c>
+      <c r="D45">
+        <v>3.6579377055085999E-3</v>
+      </c>
+      <c r="E45">
+        <v>1293.6300000000001</v>
+      </c>
+      <c r="F45">
+        <v>1.3100652758759701E-3</v>
+      </c>
+      <c r="G45">
+        <v>1.7793303723497699E-3</v>
+      </c>
+      <c r="H45">
+        <v>5.3429721713538197E-3</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2509.404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1.4929352766255E-3</v>
+      </c>
+      <c r="C46">
+        <v>1.8092377427485499E-3</v>
+      </c>
+      <c r="D46">
+        <v>3.7244455748959801E-3</v>
+      </c>
+      <c r="E46">
+        <v>1313.018</v>
+      </c>
+      <c r="F46">
+        <v>1.3092243103200701E-3</v>
+      </c>
+      <c r="G46">
+        <v>1.7841206853793799E-3</v>
+      </c>
+      <c r="H46">
+        <v>5.3859176095010196E-3</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2691.2869999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>1.50350245871693E-3</v>
+      </c>
+      <c r="C47">
+        <v>1.8263390496869199E-3</v>
+      </c>
+      <c r="D47">
+        <v>3.7949903361411698E-3</v>
+      </c>
+      <c r="E47">
+        <v>1408.306</v>
+      </c>
+      <c r="F47">
+        <v>1.3088767923181499E-3</v>
+      </c>
+      <c r="G47">
+        <v>1.7895039796906799E-3</v>
+      </c>
+      <c r="H47">
+        <v>5.4301209067873502E-3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2764.7660000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>1.5142209935862399E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.8438434834981701E-3</v>
+      </c>
+      <c r="D48">
+        <v>3.8684595117182102E-3</v>
+      </c>
+      <c r="E48">
+        <v>1383.2550000000001</v>
+      </c>
+      <c r="F48">
+        <v>1.3090634278769299E-3</v>
+      </c>
+      <c r="G48">
+        <v>1.79547177241061E-3</v>
+      </c>
+      <c r="H48">
+        <v>5.4728026401823504E-3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2854.6880000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="3">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2411,19 +5051,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:C35"/>
+      <selection activeCell="A32" sqref="A32:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2431,206 +5071,249 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>'Source Data'!B3</f>
-        <v>3.7400816402754201E-3</v>
+        <f>LOG10('Source Data'!B3)</f>
+        <v>-2.4271189177101777</v>
       </c>
       <c r="C2">
-        <f>'Source Data'!E3</f>
-        <v>3.7400816402754201E-3</v>
-      </c>
-      <c r="F2" s="1"/>
+        <f>LOG10('Source Data'!F3)</f>
+        <v>-2.4271189177101777</v>
+      </c>
+      <c r="D2">
+        <f>LOG10('Source Data'!J3)</f>
+        <v>-2.4271189177101777</v>
+      </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>'Source Data'!B4</f>
-        <v>3.3101219461231898E-3</v>
+        <f>LOG10('Source Data'!B4)</f>
+        <v>-2.4801560063593762</v>
       </c>
       <c r="C3">
-        <f>'Source Data'!E4</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
+        <f>LOG10('Source Data'!F4)</f>
+        <v>-2.4801590278654886</v>
+      </c>
+      <c r="D3">
+        <f>LOG10('Source Data'!J4)</f>
+        <v>-2.4796509231561674</v>
+      </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>'Source Data'!B5</f>
-        <v>3.17357351106775E-3</v>
+        <f>LOG10('Source Data'!B5)</f>
+        <v>-2.4984514374535927</v>
       </c>
       <c r="C4">
-        <f>'Source Data'!E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F5)</f>
+        <v>-2.499378916170921</v>
+      </c>
+      <c r="D4">
+        <f>LOG10('Source Data'!J5)</f>
+        <v>-2.4985547354551727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>'Source Data'!B6</f>
-        <v>3.0520631703134398E-3</v>
+        <f>LOG10('Source Data'!B6)</f>
+        <v>-2.5154064817805151</v>
       </c>
       <c r="C5">
-        <f>'Source Data'!E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F6)</f>
+        <v>-2.517867693618542</v>
+      </c>
+      <c r="D5">
+        <f>LOG10('Source Data'!J6)</f>
+        <v>-2.5164814826903785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>'Source Data'!B7</f>
-        <v>2.9526597785378499E-3</v>
+        <f>LOG10('Source Data'!B7)</f>
+        <v>-2.5297865919160429</v>
       </c>
       <c r="C6">
-        <f>'Source Data'!E7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F7)</f>
+        <v>-2.53427863616003</v>
+      </c>
+      <c r="D6">
+        <f>LOG10('Source Data'!J7)</f>
+        <v>-2.5322449771654485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>'Source Data'!B8</f>
-        <v>2.7276737473014099E-3</v>
+        <f>LOG10('Source Data'!B8)</f>
+        <v>-2.5642075761783181</v>
       </c>
       <c r="C7">
-        <f>'Source Data'!E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F8)</f>
+        <v>-2.5665840657866497</v>
+      </c>
+      <c r="D7">
+        <f>LOG10('Source Data'!J8)</f>
+        <v>-2.5636039124638978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>'Source Data'!B9</f>
-        <v>2.6248750420700198E-3</v>
+        <f>LOG10('Source Data'!B9)</f>
+        <v>-2.580891366479424</v>
       </c>
       <c r="C8">
-        <f>'Source Data'!E9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F9)</f>
+        <v>-2.5845707391345738</v>
+      </c>
+      <c r="D8">
+        <f>LOG10('Source Data'!J9)</f>
+        <v>-2.5794924176062928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>'Source Data'!B10</f>
-        <v>2.53493561805801E-3</v>
+        <f>LOG10('Source Data'!B10)</f>
+        <v>-2.5960330663413784</v>
       </c>
       <c r="C9">
-        <f>'Source Data'!E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F10)</f>
+        <v>-2.6011911739515274</v>
+      </c>
+      <c r="D9">
+        <f>LOG10('Source Data'!J10)</f>
+        <v>-2.5949342591024172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f>'Source Data'!B11</f>
-        <v>2.4572763717441801E-3</v>
+        <f>LOG10('Source Data'!B11)</f>
+        <v>-2.6095459953418767</v>
       </c>
       <c r="C10">
-        <f>'Source Data'!E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F11)</f>
+        <v>-2.6163768374540748</v>
+      </c>
+      <c r="D10">
+        <f>LOG10('Source Data'!J11)</f>
+        <v>-2.609041315446615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>'Source Data'!B12</f>
-        <v>2.3912575844339101E-3</v>
+        <f>LOG10('Source Data'!B12)</f>
+        <v>-2.6213736394957206</v>
       </c>
       <c r="C11">
-        <f>'Source Data'!E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F12)</f>
+        <v>-2.630356663506018</v>
+      </c>
+      <c r="D11">
+        <f>LOG10('Source Data'!J12)</f>
+        <v>-2.621869555371195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f>'Source Data'!B13</f>
-        <v>2.33478952330172E-3</v>
+        <f>LOG10('Source Data'!B13)</f>
+        <v>-2.6317522641294211</v>
       </c>
       <c r="C12">
-        <f>'Source Data'!E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F13)</f>
+        <v>-2.6430973599400036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f>'Source Data'!B14</f>
-        <v>2.2873168637966498E-3</v>
+        <f>LOG10('Source Data'!B14)</f>
+        <v>-2.6406736680709093</v>
       </c>
       <c r="C13">
-        <f>'Source Data'!E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F14)</f>
+        <v>-2.6545484659816876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f>'Source Data'!B15</f>
-        <v>2.2476006556273798E-3</v>
+        <f>LOG10('Source Data'!B15)</f>
+        <v>-2.6482808498929806</v>
       </c>
       <c r="C14">
-        <f>'Source Data'!E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F15)</f>
+        <v>-2.66491537290623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f>'Source Data'!B16</f>
-        <v>2.2147437892379002E-3</v>
+        <f>LOG10('Source Data'!B16)</f>
+        <v>-2.6546765075249192</v>
       </c>
       <c r="C15">
-        <f>'Source Data'!E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!F16)</f>
+        <v>-2.6743289876073137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f>'Source Data'!B17</f>
-        <v>2.18761406320034E-3</v>
+        <f>LOG10('Source Data'!B17)</f>
+        <v>-2.660029293401863</v>
       </c>
       <c r="C16">
-        <f>'Source Data'!E17</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F17)</f>
+        <v>-2.682768559452434</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,12 +5321,12 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>'Source Data'!B18</f>
-        <v>2.1649856337734698E-3</v>
+        <f>LOG10('Source Data'!B18)</f>
+        <v>-2.6645449811552386</v>
       </c>
       <c r="C17">
-        <f>'Source Data'!E18</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F18)</f>
+        <v>-2.6902938233090854</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2651,12 +5334,12 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>'Source Data'!B19</f>
-        <v>2.1473849503767699E-3</v>
+        <f>LOG10('Source Data'!B19)</f>
+        <v>-2.6680900949029969</v>
       </c>
       <c r="C18">
-        <f>'Source Data'!E19</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F19)</f>
+        <v>-2.6969063344275979</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,12 +5347,12 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f>'Source Data'!B20</f>
-        <v>2.1345084948281002E-3</v>
+        <f>LOG10('Source Data'!B20)</f>
+        <v>-2.6707021124694852</v>
       </c>
       <c r="C19">
-        <f>'Source Data'!E20</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F20)</f>
+        <v>-2.7026051154784025</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2677,12 +5360,12 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>'Source Data'!B21</f>
-        <v>1.81339003812334E-3</v>
+        <f>LOG10('Source Data'!B21)</f>
+        <v>-2.7415087744006978</v>
       </c>
       <c r="C20">
-        <f>'Source Data'!E21</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F21)</f>
+        <v>-2.7533216266512448</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2690,12 +5373,12 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f>'Source Data'!B22</f>
-        <v>1.7924257212901199E-3</v>
+        <f>LOG10('Source Data'!B22)</f>
+        <v>-2.7465588325930619</v>
       </c>
       <c r="C21">
-        <f>'Source Data'!E22</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F22)</f>
+        <v>-2.7611545444497256</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,12 +5386,12 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>'Source Data'!B23</f>
-        <v>1.77537107833506E-3</v>
+        <f>LOG10('Source Data'!B23)</f>
+        <v>-2.7507108592680467</v>
       </c>
       <c r="C22">
-        <f>'Source Data'!E23</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F23)</f>
+        <v>-2.7682455694392027</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,12 +5399,12 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f>'Source Data'!B24</f>
-        <v>1.76211607944527E-3</v>
+        <f>LOG10('Source Data'!B24)</f>
+        <v>-2.753965485820657</v>
       </c>
       <c r="C23">
-        <f>'Source Data'!E24</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F24)</f>
+        <v>-2.7746405852980756</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,12 +5412,12 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>'Source Data'!B25</f>
-        <v>1.7521251302226001E-3</v>
+        <f>LOG10('Source Data'!B25)</f>
+        <v>-2.7564348813730475</v>
       </c>
       <c r="C24">
-        <f>'Source Data'!E25</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F25)</f>
+        <v>-2.7803841246745957</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,12 +5425,12 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f>'Source Data'!B26</f>
-        <v>1.7449411465290999E-3</v>
+        <f>LOG10('Source Data'!B26)</f>
+        <v>-2.7582192163659407</v>
       </c>
       <c r="C25">
-        <f>'Source Data'!E26</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F26)</f>
+        <v>-2.7854260358753016</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,12 +5438,12 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>'Source Data'!B27</f>
-        <v>1.7399484028263301E-3</v>
+        <f>LOG10('Source Data'!B27)</f>
+        <v>-2.7594636302806514</v>
       </c>
       <c r="C26">
-        <f>'Source Data'!E27</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F27)</f>
+        <v>-2.7899237965964945</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,12 +5451,12 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f>'Source Data'!B28</f>
-        <v>1.7377591829206901E-3</v>
+        <f>LOG10('Source Data'!B28)</f>
+        <v>-2.7600104078499768</v>
       </c>
       <c r="C27">
-        <f>'Source Data'!E28</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F28)</f>
+        <v>-2.7939056845641179</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,12 +5464,12 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f>'Source Data'!B29</f>
-        <v>1.73764346141537E-3</v>
+        <f>LOG10('Source Data'!B29)</f>
+        <v>-2.7600393295125061</v>
       </c>
       <c r="C28">
-        <f>'Source Data'!E29</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F29)</f>
+        <v>-2.7973340848584485</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,12 +5477,12 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f>'Source Data'!B30</f>
-        <v>1.7393559662726701E-3</v>
+        <f>LOG10('Source Data'!B30)</f>
+        <v>-2.7596115287691561</v>
       </c>
       <c r="C29">
-        <f>'Source Data'!E30</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F30)</f>
+        <v>-2.800223683132264</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,12 +5490,12 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f>'Source Data'!B31</f>
-        <v>1.74262559523878E-3</v>
+        <f>LOG10('Source Data'!B31)</f>
+        <v>-2.7587959114488902</v>
       </c>
       <c r="C30">
-        <f>'Source Data'!E31</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F31)</f>
+        <v>-2.8027152264604709</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2820,12 +5503,12 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f>'Source Data'!B32</f>
-        <v>1.74708544199504E-3</v>
+        <f>LOG10('Source Data'!B32)</f>
+        <v>-2.7576858551317875</v>
       </c>
       <c r="C31">
-        <f>'Source Data'!E32</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F32)</f>
+        <v>-2.8048008990172568</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,12 +5516,12 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f>'Source Data'!B33</f>
-        <v>1.7530586585770801E-3</v>
+        <f>LOG10('Source Data'!B33)</f>
+        <v>-2.7562035518639174</v>
       </c>
       <c r="C32">
-        <f>'Source Data'!E33</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F33)</f>
+        <v>-2.8065067191896738</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,12 +5529,12 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f>'Source Data'!B34</f>
-        <v>1.75996581163959E-3</v>
+        <f>LOG10('Source Data'!B34)</f>
+        <v>-2.7544957685270344</v>
       </c>
       <c r="C33">
-        <f>'Source Data'!E34</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F34)</f>
+        <v>-2.8078728192834985</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2859,12 +5542,181 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f>'Source Data'!B35</f>
-        <v>1.76805888780284E-3</v>
+        <f>LOG10('Source Data'!B35)</f>
+        <v>-2.7525032742652988</v>
       </c>
       <c r="C34">
-        <f>'Source Data'!E35</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!F35)</f>
+        <v>-2.808959087713105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f>LOG10('Source Data'!B36)</f>
+        <v>-2.8496673284504133</v>
+      </c>
+      <c r="C35">
+        <f>LOG10('Source Data'!F36)</f>
+        <v>-2.8699292869418467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f>LOG10('Source Data'!B37)</f>
+        <v>-2.8482074797127206</v>
+      </c>
+      <c r="C36">
+        <f>LOG10('Source Data'!F37)</f>
+        <v>-2.8724589776867169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f>LOG10('Source Data'!B38)</f>
+        <v>-2.8464919402259587</v>
+      </c>
+      <c r="C37">
+        <f>LOG10('Source Data'!F38)</f>
+        <v>-2.8746756190365175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>LOG10('Source Data'!B39)</f>
+        <v>-2.844537502990244</v>
+      </c>
+      <c r="C38">
+        <f>LOG10('Source Data'!F39)</f>
+        <v>-2.8766256597868831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f>LOG10('Source Data'!B40)</f>
+        <v>-2.8423898750452898</v>
+      </c>
+      <c r="C39">
+        <f>LOG10('Source Data'!F40)</f>
+        <v>-2.8782617894846352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f>LOG10('Source Data'!B41)</f>
+        <v>-2.8400017692006965</v>
+      </c>
+      <c r="C40">
+        <f>LOG10('Source Data'!F41)</f>
+        <v>-2.8796153518998011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f>LOG10('Source Data'!B42)</f>
+        <v>-2.8374048550496429</v>
+      </c>
+      <c r="C41">
+        <f>LOG10('Source Data'!F42)</f>
+        <v>-2.8807332156256389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f>LOG10('Source Data'!B43)</f>
+        <v>-2.8346889861668285</v>
+      </c>
+      <c r="C42">
+        <f>LOG10('Source Data'!F43)</f>
+        <v>-2.8816130523030639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f>LOG10('Source Data'!B44)</f>
+        <v>-2.8318977736823587</v>
+      </c>
+      <c r="C43">
+        <f>LOG10('Source Data'!F44)</f>
+        <v>-2.8822664606172816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f>LOG10('Source Data'!B45)</f>
+        <v>-2.8289725347729324</v>
+      </c>
+      <c r="C44">
+        <f>LOG10('Source Data'!F45)</f>
+        <v>-2.8827070644614419</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f>LOG10('Source Data'!B46)</f>
+        <v>-2.8259590198795914</v>
+      </c>
+      <c r="C45">
+        <f>LOG10('Source Data'!F46)</f>
+        <v>-2.8829859390959021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f>LOG10('Source Data'!B47)</f>
+        <v>-2.8228958573497476</v>
+      </c>
+      <c r="C46">
+        <f>LOG10('Source Data'!F47)</f>
+        <v>-2.8831012326965428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f>LOG10('Source Data'!B48)</f>
+        <v>-2.8198107369290439</v>
+      </c>
+      <c r="C47">
+        <f>LOG10('Source Data'!F48)</f>
+        <v>-2.8830393101264113</v>
       </c>
     </row>
   </sheetData>
@@ -2874,19 +5726,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C34"/>
+      <selection activeCell="A32" sqref="A32:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2894,206 +5746,249 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>'Source Data'!D3</f>
-        <v>1.9767040447665099E-2</v>
+        <f>LOG10('Source Data'!D3)</f>
+        <v>-1.7040583490709007</v>
       </c>
       <c r="C2">
-        <f>'Source Data'!G3</f>
-        <v>1.9767040447665099E-2</v>
-      </c>
-      <c r="F2" s="1"/>
+        <f>LOG10('Source Data'!H3)</f>
+        <v>-1.7040583490709007</v>
+      </c>
+      <c r="D2">
+        <f>LOG10('Source Data'!L3)</f>
+        <v>-1.7040583490709007</v>
+      </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f>'Source Data'!D4</f>
-        <v>1.6928848208210199E-2</v>
+        <f>LOG10('Source Data'!D4)</f>
+        <v>-1.7713725890756429</v>
       </c>
       <c r="C3">
-        <f>'Source Data'!G4</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
+        <f>LOG10('Source Data'!H4)</f>
+        <v>-1.7745005790829782</v>
+      </c>
+      <c r="D3">
+        <f>LOG10('Source Data'!L4)</f>
+        <v>-1.7736758030049129</v>
+      </c>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>'Source Data'!D5</f>
-        <v>1.5714586582483099E-2</v>
+        <f>LOG10('Source Data'!D5)</f>
+        <v>-1.803697039864856</v>
       </c>
       <c r="C4">
-        <f>'Source Data'!G5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H5)</f>
+        <v>-1.8095605025946906</v>
+      </c>
+      <c r="D4">
+        <f>LOG10('Source Data'!L5)</f>
+        <v>-1.8059619365174686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>'Source Data'!D6</f>
-        <v>1.4701835465686401E-2</v>
+        <f>LOG10('Source Data'!D6)</f>
+        <v>-1.8326284419281615</v>
       </c>
       <c r="C5">
-        <f>'Source Data'!G6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H6)</f>
+        <v>-1.8427784965017409</v>
+      </c>
+      <c r="D5">
+        <f>LOG10('Source Data'!L6)</f>
+        <v>-1.8365894908860891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>'Source Data'!D7</f>
-        <v>1.36996738653679E-2</v>
+        <f>LOG10('Source Data'!D7)</f>
+        <v>-1.8632897715411836</v>
       </c>
       <c r="C6">
-        <f>'Source Data'!G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H7)</f>
+        <v>-1.874367192929888</v>
+      </c>
+      <c r="D6">
+        <f>LOG10('Source Data'!L7)</f>
+        <v>-1.8657901475652494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>'Source Data'!D8</f>
-        <v>1.25066552214577E-2</v>
+        <f>LOG10('Source Data'!D8)</f>
+        <v>-1.9028588224481398</v>
       </c>
       <c r="C7">
-        <f>'Source Data'!G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H8)</f>
+        <v>-1.9066097115383018</v>
+      </c>
+      <c r="D7">
+        <f>LOG10('Source Data'!L8)</f>
+        <v>-1.8954056531449595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>'Source Data'!D9</f>
-        <v>1.17118586178135E-2</v>
+        <f>LOG10('Source Data'!D9)</f>
+        <v>-1.9313741789320329</v>
       </c>
       <c r="C8">
-        <f>'Source Data'!G9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H9)</f>
+        <v>-1.9316103829668658</v>
+      </c>
+      <c r="D8">
+        <f>LOG10('Source Data'!L9)</f>
+        <v>-1.9231913180929043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f>'Source Data'!D10</f>
-        <v>1.10228615121051E-2</v>
+        <f>LOG10('Source Data'!D10)</f>
+        <v>-1.9577056488964883</v>
       </c>
       <c r="C9">
-        <f>'Source Data'!G10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H10)</f>
+        <v>-1.9542275984623421</v>
+      </c>
+      <c r="D9">
+        <f>LOG10('Source Data'!L10)</f>
+        <v>-1.9499670454836089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f>'Source Data'!D11</f>
-        <v>1.04450141389481E-2</v>
+        <f>LOG10('Source Data'!D11)</f>
+        <v>-1.9810909677982744</v>
       </c>
       <c r="C10">
-        <f>'Source Data'!G11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H11)</f>
+        <v>-1.9737123465522042</v>
+      </c>
+      <c r="D10">
+        <f>LOG10('Source Data'!L11)</f>
+        <v>-1.9757602766372753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f>'Source Data'!D12</f>
-        <v>1.00031128984164E-2</v>
+        <f>LOG10('Source Data'!D12)</f>
+        <v>-1.9998648295770016</v>
       </c>
       <c r="C11">
-        <f>'Source Data'!G12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H12)</f>
+        <v>-1.9939474001792172</v>
+      </c>
+      <c r="D11">
+        <f>LOG10('Source Data'!L12)</f>
+        <v>-2.0010349621389416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f>'Source Data'!D13</f>
-        <v>9.6456023373340805E-3</v>
+        <f>LOG10('Source Data'!D13)</f>
+        <v>-2.0156706468575796</v>
       </c>
       <c r="C12">
-        <f>'Source Data'!G13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H13)</f>
+        <v>-2.0117406567223011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <f>'Source Data'!D14</f>
-        <v>9.3013692262083301E-3</v>
+        <f>LOG10('Source Data'!D14)</f>
+        <v>-2.0314531155733238</v>
       </c>
       <c r="C13">
-        <f>'Source Data'!G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H14)</f>
+        <v>-2.0287708475276522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <f>'Source Data'!D15</f>
-        <v>8.9861094033244493E-3</v>
+        <f>LOG10('Source Data'!D15)</f>
+        <v>-2.046428298299094</v>
       </c>
       <c r="C14">
-        <f>'Source Data'!G15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H15)</f>
+        <v>-2.0442260517209725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <f>'Source Data'!D16</f>
-        <v>8.6608779937408006E-3</v>
+        <f>LOG10('Source Data'!D16)</f>
+        <v>-2.0624380792865051</v>
       </c>
       <c r="C15">
-        <f>'Source Data'!G16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>LOG10('Source Data'!H16)</f>
+        <v>-2.060586441532648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <f>'Source Data'!D17</f>
-        <v>8.3676129656934401E-3</v>
+        <f>LOG10('Source Data'!D17)</f>
+        <v>-2.0773984158036316</v>
       </c>
       <c r="C16">
-        <f>'Source Data'!G17</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H17)</f>
+        <v>-2.0762391014166131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3101,12 +5996,12 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>'Source Data'!D18</f>
-        <v>8.1064583102366805E-3</v>
+        <f>LOG10('Source Data'!D18)</f>
+        <v>-2.0911688464393623</v>
       </c>
       <c r="C17">
-        <f>'Source Data'!G18</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H18)</f>
+        <v>-2.0912578010076701</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3114,12 +6009,12 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>'Source Data'!D19</f>
-        <v>7.8913277685779808E-3</v>
+        <f>LOG10('Source Data'!D19)</f>
+        <v>-2.1028499176965418</v>
       </c>
       <c r="C18">
-        <f>'Source Data'!G19</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H19)</f>
+        <v>-2.1052951446282506</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3127,12 +6022,12 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f>'Source Data'!D20</f>
-        <v>7.5567778944868897E-3</v>
+        <f>LOG10('Source Data'!D20)</f>
+        <v>-2.121663342188242</v>
       </c>
       <c r="C19">
-        <f>'Source Data'!G20</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H20)</f>
+        <v>-2.1219614400863542</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,12 +6035,12 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>'Source Data'!D21</f>
-        <v>7.3420692093071104E-3</v>
+        <f>LOG10('Source Data'!D21)</f>
+        <v>-2.1341815259776995</v>
       </c>
       <c r="C20">
-        <f>'Source Data'!G21</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H21)</f>
+        <v>-2.1694002460411643</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,12 +6048,12 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f>'Source Data'!D22</f>
-        <v>7.1236174390905699E-3</v>
+        <f>LOG10('Source Data'!D22)</f>
+        <v>-2.1472994115772823</v>
       </c>
       <c r="C21">
-        <f>'Source Data'!G22</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H22)</f>
+        <v>-2.1871485160434134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,12 +6061,12 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>'Source Data'!D23</f>
-        <v>6.8118158929674202E-3</v>
+        <f>LOG10('Source Data'!D23)</f>
+        <v>-2.1667370984881855</v>
       </c>
       <c r="C22">
-        <f>'Source Data'!G23</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H23)</f>
+        <v>-2.2035329149273384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,12 +6074,12 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f>'Source Data'!D24</f>
-        <v>6.4786820946310403E-3</v>
+        <f>LOG10('Source Data'!D24)</f>
+        <v>-2.1885133301233299</v>
       </c>
       <c r="C23">
-        <f>'Source Data'!G24</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H24)</f>
+        <v>-2.2217139891981317</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3192,12 +6087,12 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>'Source Data'!D25</f>
-        <v>6.1032063856742104E-3</v>
+        <f>LOG10('Source Data'!D25)</f>
+        <v>-2.2144419437180032</v>
       </c>
       <c r="C24">
-        <f>'Source Data'!G25</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H25)</f>
+        <v>-2.2422127858141629</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3205,12 +6100,12 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f>'Source Data'!D26</f>
-        <v>5.7435560147693398E-3</v>
+        <f>LOG10('Source Data'!D26)</f>
+        <v>-2.2408191390631407</v>
       </c>
       <c r="C25">
-        <f>'Source Data'!G26</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H26)</f>
+        <v>-2.2619585263812896</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3218,12 +6113,12 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>'Source Data'!D27</f>
-        <v>5.4437287006837099E-3</v>
+        <f>LOG10('Source Data'!D27)</f>
+        <v>-2.2641035268801568</v>
       </c>
       <c r="C26">
-        <f>'Source Data'!G27</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H27)</f>
+        <v>-2.2790851088045354</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3231,12 +6126,12 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f>'Source Data'!D28</f>
-        <v>5.18547558561028E-3</v>
+        <f>LOG10('Source Data'!D28)</f>
+        <v>-2.2852114061535644</v>
       </c>
       <c r="C27">
-        <f>'Source Data'!G28</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H28)</f>
+        <v>-2.2818418226884787</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,12 +6139,12 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f>'Source Data'!D29</f>
-        <v>4.9429763099456403E-3</v>
+        <f>LOG10('Source Data'!D29)</f>
+        <v>-2.306011470964378</v>
       </c>
       <c r="C28">
-        <f>'Source Data'!G29</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H29)</f>
+        <v>-2.2837285910503331</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3257,12 +6152,12 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f>'Source Data'!D30</f>
-        <v>4.7249947053956401E-3</v>
+        <f>LOG10('Source Data'!D30)</f>
+        <v>-2.3255986738041883</v>
       </c>
       <c r="C29">
-        <f>'Source Data'!G30</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H30)</f>
+        <v>-2.2834998831913866</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3270,12 +6165,12 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f>'Source Data'!D31</f>
-        <v>4.5459482564271202E-3</v>
+        <f>LOG10('Source Data'!D31)</f>
+        <v>-2.3423755118745913</v>
       </c>
       <c r="C30">
-        <f>'Source Data'!G31</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H31)</f>
+        <v>-2.281605128763438</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3283,12 +6178,12 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f>'Source Data'!D32</f>
-        <v>4.4220377076199203E-3</v>
+        <f>LOG10('Source Data'!D32)</f>
+        <v>-2.3543775584236468</v>
       </c>
       <c r="C31">
-        <f>'Source Data'!G32</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H32)</f>
+        <v>-2.2791266984749226</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,12 +6191,12 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f>'Source Data'!D33</f>
-        <v>4.32236991034238E-3</v>
+        <f>LOG10('Source Data'!D33)</f>
+        <v>-2.3642780687470744</v>
       </c>
       <c r="C32">
-        <f>'Source Data'!G33</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H33)</f>
+        <v>-2.2773458588494706</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,12 +6204,12 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f>'Source Data'!D34</f>
-        <v>4.35544275047944E-3</v>
+        <f>LOG10('Source Data'!D34)</f>
+        <v>-2.3609676904114325</v>
       </c>
       <c r="C33">
-        <f>'Source Data'!G34</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H34)</f>
+        <v>-2.2752024557122907</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,12 +6217,181 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f>'Source Data'!D35</f>
-        <v>4.4312218192159598E-3</v>
+        <f>LOG10('Source Data'!D35)</f>
+        <v>-2.353476509401867</v>
       </c>
       <c r="C34">
-        <f>'Source Data'!G35</f>
-        <v>0</v>
+        <f>LOG10('Source Data'!H35)</f>
+        <v>-2.2724656254482207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f>LOG10('Source Data'!D36)</f>
+        <v>-2.4051532518093328</v>
+      </c>
+      <c r="C35">
+        <f>LOG10('Source Data'!H36)</f>
+        <v>-2.3016791542977519</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f>LOG10('Source Data'!D37)</f>
+        <v>-2.4108037164424996</v>
+      </c>
+      <c r="C36">
+        <f>LOG10('Source Data'!H37)</f>
+        <v>-2.2987681145136674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f>LOG10('Source Data'!D38)</f>
+        <v>-2.4164757266887684</v>
+      </c>
+      <c r="C37">
+        <f>LOG10('Source Data'!H38)</f>
+        <v>-2.2958667765772476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>LOG10('Source Data'!D39)</f>
+        <v>-2.4242325533563371</v>
+      </c>
+      <c r="C38">
+        <f>LOG10('Source Data'!H39)</f>
+        <v>-2.2927833308374734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f>LOG10('Source Data'!D40)</f>
+        <v>-2.434112027301742</v>
+      </c>
+      <c r="C39">
+        <f>LOG10('Source Data'!H40)</f>
+        <v>-2.2891715998677959</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f>LOG10('Source Data'!D41)</f>
+        <v>-2.4412434946852186</v>
+      </c>
+      <c r="C40">
+        <f>LOG10('Source Data'!H41)</f>
+        <v>-2.285176564483868</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f>LOG10('Source Data'!D42)</f>
+        <v>-2.4476762980721438</v>
+      </c>
+      <c r="C41">
+        <f>LOG10('Source Data'!H42)</f>
+        <v>-2.2821055622601882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f>LOG10('Source Data'!D43)</f>
+        <v>-2.4520343597554621</v>
+      </c>
+      <c r="C42">
+        <f>LOG10('Source Data'!H43)</f>
+        <v>-2.2792271276757838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f>LOG10('Source Data'!D44)</f>
+        <v>-2.4445232790385378</v>
+      </c>
+      <c r="C43">
+        <f>LOG10('Source Data'!H44)</f>
+        <v>-2.2759963862867796</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f>LOG10('Source Data'!D45)</f>
+        <v>-2.4367636948093647</v>
+      </c>
+      <c r="C44">
+        <f>LOG10('Source Data'!H45)</f>
+        <v>-2.2722170878157746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f>LOG10('Source Data'!D46)</f>
+        <v>-2.4289383676630938</v>
+      </c>
+      <c r="C45">
+        <f>LOG10('Source Data'!H46)</f>
+        <v>-2.2687402944471136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f>LOG10('Source Data'!D47)</f>
+        <v>-2.420789325688371</v>
+      </c>
+      <c r="C46">
+        <f>LOG10('Source Data'!H47)</f>
+        <v>-2.2651905003253368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f>LOG10('Source Data'!D48)</f>
+        <v>-2.4124619442191721</v>
+      </c>
+      <c r="C47">
+        <f>LOG10('Source Data'!H48)</f>
+        <v>-2.2617902130716758</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/BorrowingConstraint/Results.xlsx
+++ b/Examples/BorrowingConstraint/Results.xlsx
@@ -978,6 +978,7 @@
         <c:axId val="192063184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-2.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3315,7 +3316,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3337,7 +3338,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301370" cy="6071152"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
